--- a/new_invent.xlsx
+++ b/new_invent.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,25 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:C212"/>
+  <dimension ref="A2:C240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,945 +424,960 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>美斯路易波尔多干红葡萄酒750ml</t>
+          <t>白云边三十而立成长42度500ml</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>W0401YPC02000538631200006</t>
+          <t>BJXJA2030</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>白云边十五年45度500ml</t>
+          <t>青岛崂山啤酒500ml罐装</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJXJA1296</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>358</v>
+          <t>PJXYD0028</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>獭祭45纯米大吟酿清酒1800ml</t>
+          <t>虎牌晶纯300ml瓶装</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QJXYA0107</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+          <t>PJXZA0101</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>神农架矿泉水</t>
+          <t>喜力啤酒250ml</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P000000203753653</t>
+          <t>PJXYD0023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>时来运转礼盒</t>
+          <t>苏尔啤酒330ml瓶装</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P000000203751491</t>
-        </is>
+          <t>PJXYD0036</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>持正堂玖侣50ml</t>
+          <t>科罗娜特级啤酒275ml瓶装</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P000000203751002</t>
-        </is>
+          <t>PJXYA0192</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>白云边太阳伞</t>
+          <t>福佳白啤酒275ml瓶装国产</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P000000203751415</t>
-        </is>
+          <t>PJXYA0196</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>也买酒精品茶具</t>
+          <t>1664白啤330ml 瓶装</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P000000203751727</t>
-        </is>
+          <t>PJXZA0044</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>王朝珍藏解百纳西拉干红葡萄酒750ml * 6</t>
+          <t>罗斯福8号啤酒330ml</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PTXYA3905</t>
-        </is>
+          <t>PJXYA0038</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>奔富洛神山庄设拉子赤霞珠干红750ml</t>
+          <t>罗斯福10号啤酒330ml</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PTXYA3902</t>
+          <t>PJXYA0039</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>188</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>批阅典藏版53度500ml（白瓶）</t>
+          <t>特醇嘉士伯瓶装330ml</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P000000202865764</t>
-        </is>
+          <t>PJXYA0243</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>长城华夏大酒窖五号赤霞珠干红葡萄酒750ml</t>
+          <t>保拉纳小麦黑啤500ml</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PTXYA2865</t>
+          <t>PJXYA0061</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>长城华夏大酒窖三号赤霞珠干红葡萄酒750ml</t>
+          <t>保拉纳酵母型小麦啤酒500ML</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PTXYA2864</t>
+          <t>PJ19A0001</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>长城华夏大酒窖一号赤霞珠干红葡萄酒750ml</t>
+          <t>皇家礼炮21年带盒700ml</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PTXYA2866</t>
+          <t>YJXYA0381</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>长城华夏亚洲大酒窖干红葡萄酒750ml</t>
+          <t>马爹利XO干邑白兰地带盒700ml</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PTXYA3500</t>
+          <t>YJXYA0075</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>天塞云呦呦系列套装375ml*5</t>
+          <t>杰克丹尼威士忌700ml</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PTXYA3464</t>
+          <t>YJXYA0193</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>天塞经典品丽珠干红750ml</t>
+          <t>芝华士12年苏格兰威士忌700ml</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PTXYA3497</t>
+          <t>YJXYA0476</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>天塞经典美乐干红750ml</t>
+          <t>格兰威特18年苏格兰单一麦芽威士忌700ml</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PTXYA3466</t>
+          <t>YJXYA0612</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>天塞经典赤霞珠干红750ml</t>
+          <t>白云边三十而立奋斗酒  42度500ml</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PTXYA3465</t>
+          <t>BJXJA2193</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>11594</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>天鹅庄蓝龙虾霞多丽干白葡萄酒750ml</t>
+          <t>白占边波本威士忌750ml</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PTXYA3159</t>
+          <t>YJXYA0178</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>天鹅庄BIN88窖藏西拉干红葡萄酒750ml</t>
+          <t>马爹利名仕干邑700ml带盒</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PTXYA3158</t>
+          <t>YJXYA0032</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>天鹅庄1838赤霞珠红葡萄酒750ml</t>
+          <t>格兰威特15年威士忌700ml</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PTXYA3157</t>
+          <t>YJXYA0539</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>五粮液商务专用酒52度500ml陶瓶</t>
+          <t>百龄坛特醇苏格兰威士忌700ml</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BJXJA1697</t>
+          <t>YJXYA0197</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>五粮液商务专用酒水晶瓶52度500ml</t>
+          <t>尊尼获加红牌威士忌700ml</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BJXJA1073</t>
+          <t>YJXYA0184</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>五粮液感恩珍品52度500ml</t>
+          <t>尊尼获加黑牌威士忌700ml</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BJXJA1074</t>
+          <t>YJXYA0183</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>天鹅外交家系列领事精选西拉红葡萄酒750ml</t>
+          <t>格兰威特12年苏格兰单一麦芽醇萃雪莉桶威士忌700ml</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PTXYA3149</t>
+          <t>YJXYA0711</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>金羊荣耀干红葡萄酒750ml</t>
+          <t>马爹利鼎盛干邑白兰地700ml</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PTXYA0219</t>
+          <t>YJXYA0415</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>505</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>金羊精选干红葡萄酒750ml</t>
+          <t>白云边三十而立奋斗酒  42度500ml</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PTXYA0316</t>
+          <t>BJXJA1288</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>金羊佳酿干红葡萄酒750ml</t>
+          <t>白云边9年陈酿42度700ml</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>W0401GVK05B15458605500001</t>
+          <t>BJXJA1300</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>金羊窖藏干红葡萄酒750ml</t>
+          <t>美斯路易波尔多干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>W0401GVK03B16488606200001</t>
+          <t>W0401YPC02000538631200006</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>泸州贡酒8V 42度500ml</t>
+          <t>白云边十五年45度500ml</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>W0108HPF06000SM66151W0201</t>
+          <t>BJXJA1296</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>476</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>习酒窖藏1988雅致版黑色53度500ml</t>
+          <t>獭祭45纯米大吟酿清酒1800ml</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BJ19A0134</t>
+          <t>QJXYA0107</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>筑春小酱酒幸福版53度500ml</t>
+          <t>神农架矿泉水</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BJXJA2190</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>336</v>
+          <t>P000000203753653</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>青岛啤酒白啤（樱花罐）11度500ml*12</t>
+          <t>时来运转礼盒</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PJXYA0119</t>
+          <t>P000000203751491</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>青岛啤酒经典10度500ml*12</t>
+          <t>持正堂玖侣50ml</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PJ9A0002</t>
+          <t>P000000203751002</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>青岛啤酒清爽8度500ml*24</t>
+          <t>白云边太阳伞</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PJXYA0197</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>90</v>
+          <t>P000000203751415</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>青岛啤酒白啤11度500ml*12</t>
+          <t>也买酒精品茶具</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PJXYA0118</t>
+          <t>P000000203751727</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>泸州老窖 小酒杯6支</t>
+          <t>王朝珍藏解百纳西拉干红葡萄酒750ml * 6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P000000202051984</t>
+          <t>PTXYA3905</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>也买酒 海马刀</t>
+          <t>奔富洛神山庄设拉子赤霞珠干红750ml</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JJ0000273</t>
+          <t>PTXYA3902</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>维达(Vinda)抽纸 3层100抽</t>
+          <t>批阅珍品版53度500ml（白瓶）</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P000000202046617</t>
-        </is>
+          <t>BJXJA2186</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>764</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>赛拉图波尼候巴萨伯爵干红葡萄酒14度750ml</t>
+          <t>长城华夏大酒窖五号赤霞珠干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PTXYA3815</t>
+          <t>PTXYA2865</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>601</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>圣海莲娜珍藏卡曼尼干红750ml</t>
+          <t>长城华夏大酒窖三号赤霞珠干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>W0401WYA030005886162YLT01</t>
+          <t>PTXYA2864</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>习酒君品习酒53度500ml</t>
+          <t>长城华夏大酒窖一号赤霞珠干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BJXJA1244</t>
+          <t>PTXYA2866</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>习酒窖藏1998红瓶53度500ml</t>
+          <t>长城华夏亚洲大酒窖干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BJ18A0346</t>
+          <t>PTXYA3500</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>习酒窖藏198853度500ml</t>
+          <t>天塞云呦呦系列套装375ml*5</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BJ18A0344</t>
+          <t>PTXYA3464</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>习酒古韵酱香53度500ml</t>
+          <t>天塞经典品丽珠干红750ml</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>W0101BYL36000YK6611900001</t>
+          <t>PTXYA3497</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>习酒君子四品礼盒装53度500ml</t>
+          <t>天塞经典美乐干红750ml</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BJXJA1302</t>
+          <t>PTXYA3466</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>石花花间一壶酒金花40度500ml</t>
+          <t>天塞经典赤霞珠干红750ml</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BJXJA1233</t>
+          <t>PTXYA3465</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>阳光酒庄庄园系列西拉干红750ml2012</t>
+          <t>天鹅庄蓝龙虾霞多丽干白葡萄酒750ml</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>W0401FUY02B12708610405301</t>
+          <t>PTXYA3159</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>110</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>阳光酒庄精选系列美乐干红750ml</t>
+          <t>天鹅庄BIN88窖藏西拉干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>W0401FUY05000648610405301</t>
+          <t>PTXYA3158</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>稻花香珍品一号52度500ml</t>
+          <t>天鹅庄1838赤霞珠红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BJXJA1474</t>
+          <t>PTXYA3157</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>阳光酒庄斑马虎系列莫斯卡托半干型桃红葡萄酒750ml</t>
+          <t>五粮液商务专用酒52度500ml陶瓶</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>W0411FUY04000288610405301</t>
+          <t>BJXJA1697</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>阳光酒庄斑马虎系列莫斯卡托半干白750ml</t>
+          <t>五粮液商务专用酒水晶瓶52度500ml</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>W0407FUY04000318610405301</t>
+          <t>BJXJA1073</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>金穆桐仕佳蒙特干红葡萄酒750ml</t>
+          <t>五粮液感恩珍品52度500ml</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PTXYA2890</t>
+          <t>BJXJA1074</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>时来运转茶饼+酒礼盒</t>
+          <t>天鹅外交家系列领事精选西拉红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P000000201033902</t>
-        </is>
+          <t>PTXYA3149</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>智域小金鱼干红葡萄酒14.5度750ml</t>
+          <t>金羊荣耀干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PTXYA3801</t>
+          <t>PTXYA0219</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>168</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>宝酝酱酒中国红 53度425ml</t>
+          <t>金羊精选干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BJXJA2343</t>
+          <t>PTXYA0316</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>白云边老通城十九号42度500ml</t>
+          <t>金羊佳酿干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>W010816223000ZJ66127B3401</t>
+          <t>W0401GVK05B15458605500001</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>295</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>白云边老通城十六号42度500ml</t>
+          <t>金羊窖藏干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>W010816222000ZJ66127B3401</t>
+          <t>W0401GVK03B16488606200001</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>筑春传承1998 53度500ml</t>
+          <t>泸州贡酒8V 42度500ml</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BJXJA2394</t>
+          <t>W0108HPF06000SM66151W0201</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>156</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>高档新年福字茶杯</t>
+          <t>习酒窖藏1988雅致版黑色53度500ml</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>P000000200916146</t>
-        </is>
+          <t>BJ19A0134</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>白云边三十年陈酿53度500ml</t>
+          <t>筑春小酱酒幸福版53度500ml</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BJXJA1297</t>
+          <t>BJXJA2190</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>张裕摩塞尔干红750ml</t>
+          <t>青岛啤酒白啤（樱花罐）11度500ml*12</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PTXYA2840</t>
+          <t>PJXYA0119</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>张裕珍藏级九代解百纳干红750ml</t>
+          <t>青岛啤酒经典10度500ml*12</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PTXYA3080</t>
+          <t>PJ9A0002</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>张裕特选级九代解百纳干红750ml</t>
+          <t>青岛啤酒清爽8度500ml*4罐装</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PTXYA2833</t>
+          <t>PJXYA0197</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>张裕1915干红葡萄酒750ml</t>
+          <t>青岛啤酒白啤11度500ml*12</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PTXYA3233</t>
+          <t>PJXYA0118</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1391,87 +1387,81 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>茅台镇陈酿原浆12 52度500ml</t>
+          <t>泸州老窖 小酒杯6支</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BJ19A0023</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>441</v>
+          <t>P000000202051984</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>茅台集团茅乡封藏酒V182016年52度500ml</t>
+          <t>也买酒 海马刀</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BJ16A0305</t>
+          <t>JJ0000273</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>383</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>毛铺黑荞42度500ml</t>
+          <t>维达(Vinda)抽纸 3层100抽</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BJXJA2362</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>209</v>
+          <t>P000000202046617</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>茅乡封藏酒V20 52度500ml</t>
+          <t>赛拉图波尼候巴萨伯爵干红葡萄酒14度750ml</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>W0108QXKCY000SM6611900001</t>
+          <t>PTXYA3815</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>422</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>泸州贡酒A852度500ml</t>
+          <t>圣海莲娜珍藏卡曼尼干红750ml</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>W0108HPF03000SM66151W0201</t>
+          <t>W0401WYA030005886162YLT01</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>洛神甄藏西拉干红葡萄酒750ml</t>
+          <t>习酒君品习酒53度500ml</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PTXYA0408</t>
+          <t>BJXJA1244</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1481,459 +1471,456 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>奔富洛神甄藏西拉赤霞珠干红葡萄酒750ml</t>
+          <t>习酒窖藏1998红瓶53度500ml</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PTXYA0410</t>
+          <t>BJ18A0346</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>奔富洛神甄藏梅洛干红葡萄酒750ml</t>
+          <t>习酒窖藏198853度500ml</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PTXYA0409</t>
+          <t>BJ18A0344</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>奔富洛神甄藏赤霞珠干红葡萄酒750ml</t>
+          <t>习酒古韵酱香53度500ml</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PTXYA0407</t>
+          <t>W0101BYL36000YK6611900001</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>阳光酒庄庄园系列黑比诺干红750ml</t>
+          <t>习酒君子四品礼盒装53度500ml</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PTXYA2869</t>
+          <t>BJXJA1302</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>阳光酒庄精选系列西拉干红750ml</t>
+          <t>石花花间一壶酒金花40度500ml</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PTXYA3447</t>
+          <t>BJXJA1233</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>阳光酒庄斑马虎系列黑比诺干红750ml</t>
+          <t>阳光酒庄庄园系列西拉干红750ml2012</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PTXYA2867</t>
+          <t>W0401FUY02B12708610405301</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>拉菲罗斯柴尔德雾禾山谷梅洛红葡萄酒14度750ml</t>
+          <t>阳光酒庄精选系列美乐干红750ml</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PTXYA3834</t>
+          <t>W0401FUY05000648610405301</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>伊拉苏总统之选珍藏赤霞珠干红750ml</t>
+          <t>稻花香珍品一号52度500ml</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>W0401FPE07000588606200206</t>
+          <t>BJXJA1474</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>伊拉苏总统之选珍藏梅洛干红750ml</t>
+          <t>阳光酒庄斑马虎系列莫斯卡托半干型桃红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>W0401FPE06B15588616200206</t>
+          <t>W0411FUY04000288610405301</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>伊拉苏总统之选赤霞珠梅洛750ml</t>
+          <t>阳光酒庄斑马虎系列莫斯卡托半干白750ml</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PTXYA1696</t>
+          <t>W0407FUY04000318610405301</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>贺兰神紫标有机赤霞珠干红葡萄酒750ml</t>
+          <t>金穆桐仕佳蒙特干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PTXYA3775</t>
+          <t>PTXYA2890</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>拉博丝特阿帕尔塔红葡萄酒2012年750ml</t>
+          <t>时来运转茶饼+酒礼盒</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PT12A0097</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>9</v>
+          <t>P000000201033902</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>天塞经典赤霞珠美乐干红750ml</t>
+          <t>智域小金鱼干红葡萄酒14.5度750ml</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PTXYA3498</t>
+          <t>PTXYA3801</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>210</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GJ智象传奇赤霞珠干红葡萄酒750ml</t>
+          <t>宝酝酱酒中国红 53度425ml</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PTXYA0331</t>
+          <t>BJXJA2343</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>41</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>五粮液富贵天下绵柔2019年52度500ml</t>
+          <t>白云边老通城十九号42度500ml</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>W0108LDKXQ000SM6602300006</t>
+          <t>W010816223000ZJ66127B3401</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>五粮特曲精品52度500ml</t>
+          <t>白云边老通城十六号42度500ml</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BJXJA2163</t>
+          <t>W010816222000ZJ66127B3401</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>73</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>五粮醇金装50度</t>
+          <t>筑春传承1998 53度500ml</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BJXJA2011</t>
+          <t>BJXJA2394</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>29</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>五粮醇红装50度500ml</t>
+          <t>高档新年福字茶杯</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BJXJA2009</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>14</v>
+          <t>P000000200916146</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>五粮液庚子鼠年纪念酒2019年52度500ml*4礼盒装</t>
+          <t>白云边三十年陈酿53度500ml</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BJ19A0482</t>
+          <t>BJXJA1297</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>五粮液己亥猪年纪念酒52度500ml*4礼盒装</t>
+          <t>张裕摩塞尔干红750ml</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BJXJA0767</t>
+          <t>PTXYA2840</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>钓鱼台匠师手酿酒53度500ml</t>
+          <t>张裕珍藏级九代解百纳干红750ml</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BJXJA0398</t>
+          <t>PTXYA3080</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>263</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>汾酒杏花村青花30年53度500ml</t>
+          <t>张裕特选级九代解百纳干红750ml</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BJXJA0213</t>
+          <t>PTXYA2833</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>批阅典藏版53度500ml</t>
+          <t>张裕1915干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BJXJA2185</t>
+          <t>PTXYA3233</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>710</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>国台龙酒53度500ml</t>
+          <t>茅台镇陈酿原浆12 52度500ml</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BJXJA1711</t>
+          <t>BJ19A0023</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>国台十五年53度500ml</t>
+          <t>茅台集团茅乡封藏酒V182016年52度500ml</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BJXJA1188</t>
+          <t>BJ16A0305</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>12</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>国台国标酒53度500ml</t>
+          <t>毛铺黑荞42度500ml</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BJXJA1496</t>
+          <t>BJXJA2362</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>国台酱酒53度500ml</t>
+          <t>茅乡封藏酒V20 52度500ml</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BJXJA0944</t>
+          <t>W0108QXKCY000SM6611900001</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>48</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>康玛帝歌蒂安娜干红葡萄酒15度750ml</t>
+          <t>泸州贡酒A852度500ml</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PTXYA3800</t>
+          <t>W0108HPF03000SM66151W0201</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>144</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>hellococo椰汁330ml装</t>
+          <t>洛神甄藏西拉干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>P000000200586606</t>
-        </is>
+          <t>PTXYA0408</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>中茶云南普洱茶七子饼茶7571熟茶357g</t>
+          <t>奔富洛神甄藏西拉赤霞珠干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CYXZI0009</t>
+          <t>PTXYA0410</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>绝对X伏特加风味配制酒700ml</t>
+          <t>奔富洛神甄藏梅洛干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>YJXYA0676</t>
+          <t>PTXYA0409</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -1943,597 +1930,594 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>瑞典绝对伏特加原味700ml</t>
+          <t>奔富洛神甄藏赤霞珠干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>YJXYA0223</t>
+          <t>PTXYA0407</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>瑞典绝对伏特加柠檬味700ml</t>
+          <t>阳光酒庄庄园系列黑比诺干红750ml</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>YJXYA0224</t>
+          <t>PTXYA2869</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>瑞典绝对伏特加苹果梨味700ml</t>
+          <t>阳光酒庄精选系列西拉干红750ml</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>YJXYA0227</t>
+          <t>PTXYA3447</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>瑞典绝对伏特加柑橘味700ml</t>
+          <t>阳光酒庄斑马虎系列黑比诺干红750ml</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>YJXYA0225</t>
+          <t>PTXYA2867</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>瑞典绝对伏特加覆盆莓味700ml</t>
+          <t>拉菲罗斯柴尔德雾禾山谷梅洛红葡萄酒14度750ml</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>YJXYA0226</t>
+          <t>PTXYA3834</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>野格力娇酒700ml</t>
+          <t>伊拉苏总统之选珍藏赤霞珠干红750ml</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>YJXYC0038</t>
+          <t>W0401FPE07000588606200206</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>毛铺苦荞酒2019年42度125ml</t>
+          <t>伊拉苏总统之选珍藏梅洛干红750ml</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BJ19A0229</t>
+          <t>W0401FPE06B15588616200206</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>291</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>黄尾袋鼠西拉红葡萄酒750ml</t>
+          <t>伊拉苏总统之选赤霞珠梅洛750ml</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PT17A0028</t>
+          <t>PTXYA1696</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>慕狮王子金爵干红葡萄酒750ml</t>
+          <t>贺兰神紫标有机赤霞珠干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PTXYA3449</t>
+          <t>PTXYA3775</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>水井坊私享大坛66度500ml玻璃瓶</t>
+          <t>拉博丝特阿帕尔塔红葡萄酒2012年750ml</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BJ14A0095</t>
+          <t>PT12A0097</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>252</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>獭祭二割三分纯米大吟酿清酒720ml</t>
+          <t>天塞经典赤霞珠美乐干红750ml</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>QJXYA0036</t>
+          <t>PTXYA3498</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>五粮液天缸52度500ml</t>
+          <t>GJ智象传奇赤霞珠干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BJXJA1102</t>
+          <t>PTXYA0331</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>867</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>长城海岸葡园解百纳干红葡萄酒13度750ml</t>
+          <t>五粮液富贵天下绵柔2019年52度500ml</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PTXYA3842</t>
+          <t>W0108LDKXQ000SM6602300006</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>131</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>石花花间一壶酒银花40度500ml</t>
+          <t>五粮特曲精品52度500ml</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BJXJA1232</t>
+          <t>BJXJA2163</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>古井贡酒年份原浆古20中国香52度500ml</t>
+          <t>五粮醇金装50度</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BJXJA0472</t>
+          <t>BJXJA2011</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>古井贡酒年份原浆古8中国香50度500ml</t>
+          <t>五粮醇红装50度500ml</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BJXJA0149</t>
+          <t>BJXJA2009</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>古井贡酒年份原浆古7中国香50度500ml</t>
+          <t>五粮液庚子鼠年纪念酒2019年52度500ml*4礼盒装</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BJXJA0438</t>
+          <t>BJ19A0482</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>百威啤酒罐装500ml</t>
+          <t>五粮液己亥猪年纪念酒52度500ml*4礼盒装</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PJXZA0006</t>
+          <t>BJXJA0767</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>汾酒杏花村贵宾原浆T1852度1500ml</t>
+          <t>钓鱼台匠师手酿酒53度500ml</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BJXJA1012</t>
+          <t>BJXJA0398</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>169</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>白云边收藏级黄盒53度500ml</t>
+          <t>汾酒杏花村青花30年53度500ml</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BJXJA0362</t>
+          <t>BJXJA0213</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>奔富麦克斯珍藏铂金西拉赤霞珠干红葡萄酒750ml</t>
+          <t>批阅典藏版53度500ml</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PTXYA3536</t>
+          <t>BJXJA2185</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>144</v>
+        <v>702</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>洋河晶之藏52度500ml</t>
+          <t>国台龙酒53度500ml</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BJXJA0262</t>
+          <t>BJXJA1711</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>茅台老树藤干红750ml</t>
+          <t>国台十五年53度500ml</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PTXYA3676</t>
+          <t>BJXJA1188</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>劲酒金标38度500ml</t>
+          <t>国台国标酒53度500ml</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BJXJA0768</t>
+          <t>BJXJA1496</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>小郎酒45度100ml</t>
+          <t>国台酱酒53度500ml</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BJXYA0031</t>
+          <t>BJXJA0944</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>309</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>郎酒红花郎15-53度500ml</t>
+          <t>康玛帝歌蒂安娜干红葡萄酒15度750ml</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BJXJA0094</t>
+          <t>PTXYA3800</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>郎酒顺品郎480红顺浓香型45度480ml</t>
+          <t>hellococo椰汁330ml装</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BJXJA2171</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>100</v>
+          <t>P000000200586606</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>洋河梦之蓝M6+52度550ml</t>
+          <t>中茶云南普洱茶七子饼茶7571熟茶357g</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BJXJA1572</t>
+          <t>CYXZI0009</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>30</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>洋河天之蓝42度480ml</t>
+          <t>绝对X伏特加风味配制酒700ml</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BJXJA0408</t>
+          <t>YJXYA0676</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>郎酒顺品郎塑盖45度280ml</t>
+          <t>瑞典绝对伏特加原味700ml</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BJXJA2241</t>
+          <t>YJXYA0223</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>洋河梦之蓝M3水晶版52度550ml</t>
+          <t>瑞典绝对伏特加柠檬味700ml</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>BJXJA1857</t>
+          <t>YJXYA0224</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>白云边二十年42度500ml</t>
+          <t>瑞典绝对伏特加苹果梨味700ml</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BJXJA0524</t>
+          <t>YJXYA0227</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>洋河天之蓝52度480ml</t>
+          <t>瑞典绝对伏特加柑橘味700ml</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BJXJA0275</t>
+          <t>YJXYA0225</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>筑春品鉴酒53度500ml</t>
+          <t>瑞典绝对伏特加覆盆莓味700ml</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>BJXJA1901</t>
+          <t>YJXYA0226</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>128</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>白云边十二年42度500ml</t>
+          <t>野格力娇酒700ml</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BJXJA0522</t>
+          <t>YJXYC0038</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>974</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>剑南春52度500ml</t>
+          <t>毛铺苦荞酒2019年42度125ml</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BJXJA0176</t>
+          <t>BJ19A0229</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>736</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>阳光酒庄精选系列西拉赤霞珠混酿B干红葡萄酒750ml</t>
+          <t>黄尾袋鼠西拉红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PTXYA3446</t>
+          <t>PT17A0028</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>水井坊收藏系列2014年52度500ml</t>
+          <t>慕狮王子金爵干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>BJ14A0100</t>
+          <t>PTXYA3449</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>12113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>澳兰莎普黄金小维多干红葡萄酒14度750ml</t>
+          <t>水井坊私享大坛66度500ml玻璃瓶</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PTXYA3810</t>
+          <t>BJ14A0095</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>460</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>舍得酒品味52度500ml</t>
+          <t>獭祭二割三分纯米大吟酿清酒720ml</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BJXJA0631</t>
+          <t>QJXYA0036</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2543,1018 +2527,1441 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>中国劲酒 125ml</t>
+          <t>五粮液天缸52度500ml</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BJXJA0742</t>
+          <t>BJXJA1102</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1368</v>
+        <v>853</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>西凤酒55度500ml</t>
+          <t>长城海岸葡园解百纳干红葡萄酒13度750ml</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BJXJA0071</t>
+          <t>PTXYA3842</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>59</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>汾酒杏花村乳白玻瓶48度475ml</t>
+          <t>石花花间一壶酒银花40度500ml</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>BJXJA0904</t>
+          <t>BJXJA1232</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>汾酒杏花村黄盖53度475ml</t>
+          <t>古井贡酒年份原浆古20中国香52度500ml</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BJXJA0326</t>
+          <t>BJXJA0472</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>333</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>稻花香珍品一号黄盒42度500ml</t>
+          <t>古井贡酒年份原浆古8中国香50度500ml</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>BJXJA1179</t>
+          <t>BJXJA0149</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>奔富BIN407解百纳赤霞珠红葡萄酒木塞750ml</t>
+          <t>古井贡酒年份原浆古7中国香50度500ml</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PTXYA0702</t>
+          <t>BJXJA0438</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>奔富BIN128西拉子红葡萄酒木塞750ml</t>
+          <t>百威啤酒罐装500ml</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PTXYA0647</t>
+          <t>PJXZA0006</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>奔富BIN8赤霞珠西拉子红葡萄酒750ml</t>
+          <t>汾酒杏花村贵宾原浆T1852度1500ml</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PTXYA0718</t>
+          <t>BJXJA1012</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>奔富寇兰山赤霞珠干红葡萄酒750ml</t>
+          <t>白云边收藏级黄盒53度500ml</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PTXYA0727</t>
+          <t>BJXJA0362</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>奔富175设拉子红葡萄酒750ml</t>
+          <t>奔富麦克斯珍藏铂金西拉赤霞珠干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PTXYA3550</t>
+          <t>PTXYA3536</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>红魔鬼赤霞珠红葡萄酒750ml</t>
+          <t>洋河晶之藏52度500ml</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PTXYA2691</t>
+          <t>BJXJA0262</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>316</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>康玛帝歌圣柏干红葡萄酒14度750ml</t>
+          <t>茅台老树藤干红750ml</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PTXYA3893</t>
+          <t>PTXYA3676</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>飞天茅台2021年53度500ml</t>
+          <t>劲酒金标38度500ml</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>W0119BRKXL001000006300001</t>
+          <t>BJXJA0768</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>也买酒鄂州店团餐</t>
+          <t>小郎酒45度100ml</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>P000000197964367</t>
-        </is>
+          <t>BJXYA0031</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>锁唇S5巴罗萨设拉子红葡萄酒2017年750ml</t>
+          <t>郎酒红花郎15-53度500ml</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PT17A0114</t>
+          <t>BJXJA0094</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>锁唇S3设拉子红葡萄酒750ml</t>
+          <t>郎酒顺品郎480红顺浓香型45度480ml</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PTXZA0026</t>
+          <t>BJXJA2171</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>锁唇S1赤霞珠红葡萄酒750ml</t>
+          <t>洋河梦之蓝M6+52度550ml</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PTXZA0027</t>
+          <t>BJXJA1572</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>奔富麦克斯珍藏黑金赤霞珠干红葡萄酒750ml</t>
+          <t>洋河天之蓝42度480ml</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PTXZA0065</t>
+          <t>BJXJA0408</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>奔富麦克斯珍藏灿金西拉干红葡萄酒750ml</t>
+          <t>郎酒顺品郎塑盖45度280ml</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PTXZA0064</t>
+          <t>BJXJA2241</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>奔富BIN389赤霞珠西拉干红葡萄酒木塞750ml（系列）</t>
+          <t>洋河梦之蓝M3水晶版52度550ml</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PTXZA0144</t>
+          <t>BJXJA1857</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>414</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>奔富BIN2西拉马塔罗干红葡萄酒螺旋盖750ml</t>
+          <t>白云边二十年42度500ml</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PTXZA0140</t>
+          <t>BJXJA0524</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>奔富BIN138设拉子歌海娜玛塔罗红葡萄酒750ml</t>
+          <t>洋河天之蓝52度480ml</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PTXYA0653</t>
+          <t>BJXJA0275</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>145</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>筑春小酱酒53度500ml</t>
+          <t>筑春品鉴酒53度500ml</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BJXJA1943</t>
+          <t>BJXJA1901</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>335</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>筑春精品20酱香型53度500ml</t>
+          <t>白云边十二年42度500ml</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BJXJA1976</t>
+          <t>BJXJA0522</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>48</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>筑春酱酒真藏拾年53度500ml</t>
+          <t>剑南春52度500ml</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BJXJA1664</t>
+          <t>BJXJA0176</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>608</v>
+        <v>688</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>筑春酱酒荣耀1988-53度500ml</t>
+          <t>阳光酒庄精选系列西拉赤霞珠混酿B干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BJXJA1944</t>
+          <t>PTXYA3446</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>300</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>洋河海之蓝42度480ml</t>
+          <t>水井坊收藏系列2014年52度500ml</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BJXJA0214</t>
+          <t>BJ14A0100</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>366</v>
+        <v>22878</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>汾酒杏花村青花20年53度500ml</t>
+          <t>澳兰莎普黄金小维多干红葡萄酒14度750ml</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>BJXJA0212</t>
+          <t>PTXYA3810</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>739</v>
+        <v>244</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>汾酒青花30复兴版53度500ml</t>
+          <t>舍得酒品味52度500ml</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>BJXJA1945</t>
+          <t>BJXJA0631</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>西凤酒蓝七彩30年52度500ml</t>
+          <t>中国劲酒 125ml</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>BJXJA0307</t>
+          <t>BJXJA0742</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>西凤酒金七彩20年52度500ml</t>
+          <t>西凤酒55度500ml</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BJXJA0302</t>
+          <t>BJXJA0071</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>一尊天下豪华30-52度500ml</t>
+          <t>汾酒杏花村乳白玻瓶48度475ml</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>BJXJA1859</t>
+          <t>BJXJA0904</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>534</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>小五粮52度375ml</t>
+          <t>汾酒杏花村黄盖53度475ml</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>BJXJA2012</t>
+          <t>BJXJA0326</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>五粮液囍酒辛丑牛年纪念酒52度500ml*4</t>
+          <t>稻花香珍品一号黄盒42度500ml</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>BJXJA1880</t>
+          <t>BJXJA1179</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>五粮液己亥猪年纪念酒2019年52度500ml*2</t>
+          <t>奔富BIN407解百纳赤霞珠红葡萄酒木塞750ml</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>W0108LDKLFXYSMGS151200D1</t>
+          <t>PTXYA0702</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>五粮液贺岁四宝鸡年狗年猪年鼠年生肖珍藏酒52度500ml*4</t>
+          <t>奔富BIN128西拉子红葡萄酒木塞750ml</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BJXJA1979</t>
+          <t>PTXYA0647</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>五粮液庚子鼠年纪念酒好事成双装2019年52度500ml</t>
+          <t>奔富BIN8赤霞珠西拉子红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BJ19A0489</t>
+          <t>PTXYA0718</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>五粮液第七代收藏限量版52度500ml</t>
+          <t>奔富寇兰山赤霞珠干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BJXYA0007</t>
+          <t>PTXYA0727</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>五粮液普五第八代2020年52度500ml</t>
+          <t>奔富175设拉子红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>BJ20A0020</t>
+          <t>PTXYA3550</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>五粮液经典2021年52度500ml</t>
+          <t>红魔鬼赤霞珠红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BJ21A0065</t>
+          <t>PTXYA2691</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>五粮液16182018年52度500ml</t>
+          <t>康玛帝歌圣柏干红葡萄酒14度750ml</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BJ18A0224</t>
+          <t>PTXYA3893</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>448</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>水井坊臻酿八号52度500ml</t>
+          <t>飞天茅台2021年53度500ml</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BJXJA0192</t>
+          <t>W0119BRKXL001000006300001</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>水井坊井台52度500ml</t>
+          <t>锁唇S5巴罗萨设拉子红葡萄酒2017年750ml</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BJXJA0201</t>
+          <t>PT17A0114</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>149</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>神农架酱酒金53度500ml+年份老酒50ml</t>
+          <t>锁唇S3设拉子红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>BJXJA2225</t>
+          <t>PTXZA0026</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>122</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>神农架酱酒53度500ml</t>
+          <t>锁唇S1赤霞珠红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>BJXJA2226</t>
+          <t>PTXZA0027</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>茅台股份财富酒贵宾珍藏53度500ml</t>
+          <t>奔富麦克斯珍藏黑金赤霞珠干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>BJXJA1803</t>
+          <t>PTXZA0065</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2736</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>毛铺苦荞酒紫荞45度500ml</t>
+          <t>奔富麦克斯珍藏灿金西拉干红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>BJXJA0766</t>
+          <t>PTXZA0064</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>毛铺苦荞酒金荞2017年42度500ml</t>
+          <t>奔富BIN389赤霞珠西拉干红葡萄酒木塞750ml（系列）</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>BJ17A0360</t>
+          <t>PTXZA0144</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>531</v>
+        <v>372</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>毛铺苦荞黑荞42.8度500ml</t>
+          <t>奔富BIN2西拉马塔罗干红葡萄酒螺旋盖750ml</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BJ18A0459</t>
+          <t>PTXZA0140</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>黄鹤楼陈香1989-42度500ml</t>
+          <t>奔富BIN138设拉子歌海娜玛塔罗红葡萄酒750ml</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>BJXJA0485</t>
+          <t>PTXYA0653</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>黄鹤楼陈香1979-42度500ml</t>
+          <t>筑春小酱酒53度500ml</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>BJXJA0220</t>
+          <t>BJXJA1943</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>30</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>黄鹤楼20生态原浆酒45度500ml</t>
+          <t>筑春精品20酱香型53度500ml</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>BJXJA0222</t>
+          <t>BJXJA1976</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>黄鹤楼15生态原浆酒42度500ml</t>
+          <t>筑春酱酒真藏拾年53度500ml</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BJXJA0465</t>
+          <t>BJXJA1664</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>29</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>黄鹤楼12生态原浆酒42度500ml</t>
+          <t>筑春酱酒荣耀1988-53度500ml</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>BJXJA0464</t>
+          <t>BJXJA1944</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>91</v>
+        <v>256</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>国窖1573品味敦煌飞天版52度500ml</t>
+          <t>洋河海之蓝42度480ml</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BJXJA2257</t>
+          <t>BJXJA0214</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>184</v>
+        <v>322</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>国窖1573-52度500ml</t>
+          <t>汾酒杏花村青花20年53度500ml</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BJXJA0217</t>
+          <t>BJXJA0212</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>443</v>
+        <v>534</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>钓鱼台黑金酒53度500ml</t>
+          <t>汾酒青花30复兴版53度500ml</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>BJXJA0756</t>
+          <t>BJXJA1945</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>7052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>钓鱼台国宾酒53度500ml</t>
+          <t>西凤酒蓝七彩30年52度500ml</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BJXJA2078</t>
+          <t>BJXJA0307</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>257</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>钓鱼台贵宾酒53度500ml</t>
+          <t>西凤酒金七彩20年52度500ml</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>BJXJA2079</t>
+          <t>BJXJA0302</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>452</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>白云边收藏级红盒53度500ml</t>
+          <t>一尊天下豪华30-52度500ml</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>BJXJA0920</t>
+          <t>BJXJA1859</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>5</v>
+        <v>312</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>白云边十五年42度500ml</t>
+          <t>小五粮52度375ml</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>BJXJA0523</t>
+          <t>BJXJA2012</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2481</v>
+        <v>43</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>白云边二十年45度500ml</t>
+          <t>五粮液囍酒辛丑牛年纪念酒52度500ml*4</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>BJXJA0361</t>
+          <t>BJXJA1880</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1038</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>白云边1979-53度500ml</t>
+          <t>五粮液己亥猪年纪念酒2019年52度500ml*2</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>BJXJA0221</t>
+          <t>W0108LDKLFXYSMGS151200D1</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>333</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>白云边1979-45度500ml</t>
+          <t>五粮液贺岁四宝鸡年狗年猪年鼠年生肖珍藏酒52度500ml*4</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BJXJA1128</t>
+          <t>BJXJA1979</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>白云边1979-42度500ml</t>
+          <t>五粮液庚子鼠年纪念酒好事成双装2019年52度500ml</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BJXJA2083</t>
+          <t>BJ19A0489</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>845</v>
+        <v>55</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>白云边三十年陈酿45度500ml</t>
+          <t>五粮液第七代收藏限量版52度500ml</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>BJXJA2099</t>
+          <t>BJXYA0007</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>白云边二十年陈酿53度500ml</t>
+          <t>五粮液普五第八代2020年52度500ml</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>BJXJA1255</t>
+          <t>BJ20A0020</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>263</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
+          <t>五粮液经典2021年52度500ml</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>BJ21A0065</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>五粮液16182018年52度500ml</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>BJ18A0224</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>水井坊臻酿八号52度500ml</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>BJXJA0192</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>水井坊井台52度500ml</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>BJXJA0201</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>神农架酱酒金53度500ml+年份老酒50ml</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>BJXJA2225</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>神农架酱酒53度500ml</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>BJXJA2226</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>茅台股份财富酒贵宾珍藏53度500ml</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>BJXJA1803</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>毛铺苦荞酒紫荞45度500ml</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>BJXJA0766</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>毛铺苦荞酒金荞2017年42度500ml</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>BJ17A0360</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>毛铺苦荞黑荞42.8度500ml</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>BJ18A0459</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>黄鹤楼陈香1989-42度500ml</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>BJXJA0485</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>黄鹤楼陈香1979-42度500ml</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>BJXJA0220</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>黄鹤楼20生态原浆酒45度500ml</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>BJXJA0222</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>黄鹤楼15生态原浆酒42度500ml</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>BJXJA0465</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>黄鹤楼12生态原浆酒42度500ml</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>BJXJA0464</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>国窖1573品味敦煌飞天版52度500ml</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>BJXJA2257</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>国窖1573-52度500ml</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>BJXJA0217</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>钓鱼台黑金酒53度500ml</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>BJXJA0756</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>6954</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>钓鱼台国宾酒53度500ml</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>BJXJA2078</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>钓鱼台贵宾酒53度500ml</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>BJXJA2079</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>白云边收藏级红盒53度500ml</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>BJXJA0920</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>白云边十五年42度500ml</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>BJXJA0523</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>白云边二十年45度500ml</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>BJXJA0361</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>白云边1979-53度500ml</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>BJXJA0221</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>白云边1979-45度500ml</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>BJXJA1128</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>白云边1979-42度500ml</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>BJXJA2083</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>白云边三十年陈酿45度500ml</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>BJXJA2099</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>白云边二十年陈酿53度500ml</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>BJXJA1255</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
           <t>稻花香H20活力型42度500ml</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>BJXJA1177</t>
         </is>
       </c>
-      <c r="C212" t="n">
-        <v>117</v>
+      <c r="C240" t="n">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
